--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/22_Çanakkale_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/22_Çanakkale_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC4A125-2111-46B2-9DDD-2A17EF7AD430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38BF130-ECE4-46CC-A07A-14BFFB9D6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{09311497-5627-4D26-A805-85DCDEEDD547}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{7C2596DB-77EE-446A-878F-819AE024A20A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -951,13 +951,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8A9B6738-4EC1-4754-88A8-A9958F4D3DEE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E727BCD7-3503-49BA-89D0-73BA5070E70E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5E9436DE-9305-4F67-A1FE-534765D1E703}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{84043BB4-45CE-473D-A651-7715EB988255}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1F8C424E-4278-4BF3-B965-2A6792311FE9}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2A3B8D91-15B6-4923-ACB0-209686785BFA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F01E2C60-BDFA-4479-BF81-730B430C8F97}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{26C88B45-C182-4D0E-A423-455264EE8451}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2985B6F-14F4-4D42-9061-C88A6E620751}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BB43014F-33AB-4766-9E03-4856746C446C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C4890842-43A7-42E4-89F2-97E4C2C084CD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F08D0310-E1CE-49D9-B800-E167DD935696}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{81EAC5A9-27B6-47C7-8090-5CB837FBDA77}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AE09A591-619C-41FF-A255-3DA6FDA7DDDE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C195D53-0AB4-49A4-9D40-1C6219971FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD824B1C-0867-4F9F-A424-07A55316C946}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2618,18 +2618,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F19CAD6-C168-47CB-AC9F-8A561E9ED14D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5A3A630-B267-4B6F-A069-0E719873790D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67567065-D57E-4379-A920-75FF316E7FC1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{810ECE38-E739-4527-9578-19E11ECC996D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A4D8268-838E-4AD3-BCF9-2F0FE3F85D7B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0096D550-FB6C-470E-8B8E-0460FCE8EDCC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{574DD022-4369-464F-BEE9-34541404F81B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F35E70F-5781-49DA-9F03-8271D30D9940}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E45A7D9A-3694-42E6-ACFD-5AFAF2C3AEC0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9F9319E2-EA7A-4355-8B71-5270F564FE4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8AA086F-D9E4-482E-A599-87EEBF228FDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{668BC82A-91DA-4720-AA02-43EDECBF652D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FF1F407-05EE-4FE9-AED2-01E82F6F3C4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47A5867E-8D9C-47C9-A76B-8B80C5EC2A72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6715D8C6-4AC6-49F1-9F34-C16CE3CAAAE9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63F90A4E-0DFB-4525-8B15-C62104960DA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49CEAAEE-B464-483F-899B-A9803A6E2B07}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3673642D-8E2A-42D4-B75C-72C59E688B9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F24AF4FF-1226-41CD-A7C6-FE5B29117810}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{955C376B-4271-49B0-9013-D48BA02468F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0C03236-0511-4413-9821-BF9B22E14DB7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{874F83FB-84C8-472B-AA36-57E46439CAC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73FCBFDD-8BB5-4E27-94BE-E9B4B6FA7CA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E4F192F-7972-43F8-AA21-CECDCB644698}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2642,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE44970-5664-4466-9513-EC55C6E7E0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D40789-0A98-46DC-972F-2B5E753708AD}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3896,18 +3896,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54821855-8F8F-4E12-8A99-EA325D3B8373}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1355BEE2-A2C2-400B-A1BF-EC804A02780A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39323C5E-50DD-49B8-BEA5-9C08B766F7C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6700739A-A100-49E4-A1DF-768A6DADCBD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{258ED89E-3DF3-4D12-8744-E96B1AFD0111}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{282E2B3E-7733-453B-A79E-48DBE127CFCE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6A3FFC1-7BE4-48B9-8455-8FAB7C84AD8E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73CD26CD-3D72-49E4-AF97-EE062D75C0ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2584810-2E87-4491-8FC5-AF4B6F0EA1BD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B32B1603-00A8-40F1-AB4B-7C4518D56D24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40A3B88C-662F-47F7-90B8-9A40FD86BCC8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F49E834-85D0-44D4-9103-EBF3C408FA68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7F5FED1-4235-485D-82BE-4BC2BD0607FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{016011E2-C578-4C20-9442-60099A7D39C3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2EEA309D-05A0-4986-96FE-97E9D8C4D9EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FB840F9-1122-475D-9B6D-A3E1359F98AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87861D92-8D6E-4F14-AAB0-9451AD828534}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{399A77BB-C9C5-482F-AD67-0DE30684F8BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A28DC922-53F7-425B-8E47-67D5D86AD8A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADA71085-FE9D-41BF-870D-A14B48E9CA09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85BECDB5-4E17-4F81-8580-F86F04831B10}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9332CEB7-FCFD-4EC4-AD55-48C31B6B8950}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{183ADCAA-DDCD-41A6-BA6F-FB8AA6640E76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F632AE16-97E7-4B87-8B65-91161A086BC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3920,7 +3920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2058FC10-1AB4-4309-A642-8689989FA5F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8ACBE-CA16-4A6C-956F-F08D8D18E5E2}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5174,18 +5174,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0940CD3-CA4E-4D6E-96BF-42C362B748A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BC635FB-A02C-4335-BDE8-F2B9485AA7B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FFFA579E-FD52-4530-966B-05C20AEA504E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5FA9FE61-1437-4784-AE1A-77E1E1280D93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA0F40A0-9725-4FE2-9468-22F03C328B3F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{382D16E9-EBD8-4A78-8903-2766220D7DE1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FA601ED-D3A0-474A-9D97-3BA9241AF33B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7680F13-3EF6-4F2A-AAF4-563CDF54045D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E15A017-DB5E-4F97-A243-3039B6EBD9FC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42F91CEB-BFA0-4941-927A-C062E5312778}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22E3BFC5-3305-40AF-AFD6-A64285F67FFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{451F7B3A-372C-468B-8823-316F5C4B9EAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7607E3BC-82B0-4EC5-AA40-C4ECAB50988C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1B5525D-E2CA-4894-98DB-BFA344937E43}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{474FFC07-F3D4-4773-9BC8-83D507311021}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E83C4ADE-8E5A-4ACE-B752-FD57529AD04A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1A9F5BD-3949-45BC-A52E-17B311AB2F87}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73BF285E-2FD5-446B-B225-2C71A015B585}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93CA30F1-90B9-4EF2-9714-D64F87F1A169}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2FAB254-43A7-4257-BB97-5BA839DBB5C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17939C13-865B-45CB-A219-36124A45113E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AFAB939B-4E76-4090-9D97-950F79182910}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC8F08DF-EA51-4E11-AD1C-0A447ED6C271}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B551AD8-7B09-408D-95D8-140670A232AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5198,7 +5198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3377EC5C-88F3-4A24-968A-2F3370D47DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070BD8AD-B787-496B-A628-1CFF0BE681C2}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6444,18 +6444,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{552D3560-6BE7-4F66-A7C4-46E3C79A0728}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5E29D41-C157-4C82-91C0-9D863AAC26EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F04D5849-4BB6-4D75-9869-EB05B85384E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E55FF6D-75BE-4F84-8750-929A8106A8FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57C8AA11-09A0-4CFB-B003-8AF7A52CD0C5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3DD4D86-65DC-4008-B302-95A774CC61E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E2326E4-FC9C-422C-A4B2-3FB878B5A27A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C98F508-2D3D-4014-BFA7-68244EFD9B5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80DF938D-388E-428D-9DA4-03131AA3F3C6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D7F7404A-7DD1-43F1-8687-EF344C4C6FA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE3F036D-6109-4905-8929-FCCC15593013}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A88DF7D-1C4B-4996-B4C6-5725D2557883}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E873187-AD15-4136-B808-17C73D9D7A46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C401BCC-DB3E-4DF2-B2B0-857EE5165BB2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AFC1D7CB-9F16-4B60-81BF-B59BC250E3C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCBE0389-E0E6-4767-8905-FBBD419218F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B18BB6C0-513D-466F-B0C8-16F681DED28A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D70FEDA-1AC2-4A2B-8725-F497BE5FDC75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{058AB2EA-0C35-45ED-9D0E-29BA39E88139}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82874BA2-C76C-44E3-A23C-21F5FACDA727}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5304914-40ED-4AA9-AFAC-CB641D7DE3D2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5EDE320D-F48E-4759-8817-74DD9501B128}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A80BBD3F-8E46-4D6B-9030-31B87E8C900D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0FAAAE2-6338-44F1-AE69-D1391765965B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6468,7 +6468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABE2418-E387-49B0-8942-7AF2D4914771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90E0CE-6022-4888-822C-C0C77046E768}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7759,18 +7759,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60B0115E-94C2-4E50-8FAF-1366BC5032E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{891104F1-6D62-4798-A3B9-17E750C823F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7EF8CB0-604D-421D-873E-486980ECBF33}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28A8DDEB-3A1A-4C3A-8EF0-8B6C9BD948B6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47296CFF-52D1-47DA-912C-62DE119251E0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DB0FD28F-FB98-4F32-A15E-4E4AE67847E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{663DD33D-5F6E-4F74-998F-6082B757D34F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD42B015-906E-40D3-95A3-6B12E2072C36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA8C78B1-A74C-4EC4-9086-F4B5C45A00B0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{59D95646-9B3E-47BD-A055-8657314DFF27}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AF34958-3A96-495A-9685-939C6CF357F7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2099D44-904C-486F-B351-D29539B7CA0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30B696DB-673C-43B4-91BA-06440E5B5BAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{503ADAAB-5BAC-4458-A7B4-6E72CE5E03CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6AAD9EF-F339-49C5-86DD-83AF8637F8B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5077B52C-F3BE-4629-AF54-FF1024743FDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6118121-C170-44AB-AF7E-41130266A388}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE5D2132-0EC4-4E63-B356-1BB270F146BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF1FDBAE-09C2-4DA1-BAAC-06468AEF32DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D60E682-9025-459A-90DA-533468A69BEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E081B02-4943-43D6-97A3-943BD121F07C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6B01F66-77CE-4FAD-B772-56C4C8CB387C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36926965-EA98-4641-BFC4-3D646A618D06}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D7F80C7-6F9E-42A3-AA8F-31E3CA2B5112}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7783,7 +7783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B348F4E5-C302-4891-A123-66B3ACA231E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547AB8DB-101A-4024-9F51-91115052F2A6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9074,18 +9074,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24E2F1A6-24F3-4991-9C39-11F1D97BB0F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F32E1F1B-ECE0-4681-8919-AEC35001049A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9392D887-F70C-4636-B76F-B059947974A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{184CB8BD-C4C4-4C66-9F5D-A71711D8E498}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36F52B75-5551-4D8F-98F8-709137E11596}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E748B23-D71B-4FD5-9FED-E88E5257DEBC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8066C865-74A4-4361-9620-2B6BA5E0B159}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61F6DCBA-1292-4FC2-B0F1-0C9DBB660B8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB3E9C5D-5B30-4F60-9DFA-A36B19D81294}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{20CBAAF5-AB2D-43E3-9177-2D293B54C4F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E797FA6-8460-414F-A4B4-8652BA019DAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57C2EFD7-BC91-4FDF-8C88-E9709132B8E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{294F0B5E-86AC-4100-A9E7-52B9C92F0075}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCA33983-56FD-43E7-8ABB-6E4C82019D99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41D97E48-7544-447B-9066-186B580E203A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54548AC3-FF2A-49AD-BC85-1055B2D25150}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6DD1406-CA83-410A-8969-E04D07111C2E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C7F2C540-9EBB-4C39-8658-9FD62345F688}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB5EC699-9748-4CD3-9048-B466C7BD6D59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE8CB3CA-91DF-42D7-8D95-ABC12446B409}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0DB4FA3-2692-445F-A223-0B6A8DA88D6B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90701E2A-70ED-4081-A4E1-5535A666F38D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CE510D5-4521-4BFD-B772-1D1601BF7963}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAEBFA20-CAA7-4B88-A75D-958E3A6B6EC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9098,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BFEDE4-9F94-4412-A5F3-49FE3E562CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB332B-B4C3-4F26-B78D-275B07F7735B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10389,18 +10389,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{558C76D1-E643-460F-9E88-449E30E12122}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6CBBBE0-FD85-4DC6-B61E-D92384B6A1EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03C0222C-B935-4099-A7F5-98AC87D7C12A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A7C76DE-837C-439C-93B2-CFAFC867B302}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51B0CE46-7EDA-4897-844B-11BE596BAD86}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B91F0D00-A9E7-4B16-BB0E-D4290057FC23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99A225AE-DD94-4F4F-8CDA-2A5E3D0E504C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73FED9B0-97AF-4CF8-B56F-7C17BCC1AD02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63BB03E2-6B96-4548-BACC-CDF6556DF71F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{884FE828-001F-4AEE-A8C5-516C27B355A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56EE5425-7AD4-4360-8073-6A75DA3BCFDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{357BEF64-A39F-4D29-B3BD-FAE9D8F33EBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A94C647A-B5CD-4C3E-896B-B2148BFA850B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6A567D0-52CE-4539-9B0B-74438AEB2301}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8CC235F7-2AAF-43C6-B97D-651A228C31D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94B03A38-C86D-4D30-BC19-D1465F76DF1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B5DA6E2-D900-4EA9-A9F2-571CE56C1EE5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A13C2C8C-8539-4924-9CC8-4198633DA4AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDF34719-DC67-4B57-82CB-85B9981DFD92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1D2286A-35BC-45A0-A9DC-EE6CCDAF756A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E41B84C-6A7E-4668-B05B-4A24E6489C44}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4DA34E57-650B-419A-A783-2EE55A5D2BD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC4F3F02-E2BC-4A58-9EBA-2B441CCC9A2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7728D8A1-BC9B-4F26-BC16-977EFA354892}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10413,7 +10413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0649D65B-4044-49C7-84DD-DA1939550D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDFB41D-7A5B-47AF-A143-576D7049ECD3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11704,18 +11704,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{341AD8C9-0036-40BD-88CE-8272FA6B4A4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACEDCD21-2569-4334-9D07-C4D9462EA7EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B989D0F-79DC-4789-B996-2074082EAB29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F072E430-AD5D-4B11-BFCE-63EBE11F418E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6675D5FD-4C8E-420C-B0A4-426941EEA108}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6F4746C-450E-426C-9F57-4353D21D7576}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EFBB2BA-16AD-4DC3-B246-17E25995D30E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EA81761-4CEF-47C5-97E1-E249A25F46D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A06341F-4434-4E67-95B4-1DD738361FD2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E7AD5997-1F5D-44E3-80BB-D83580181B60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A74F2E0D-2FD6-4B9D-83FE-ABB60969720C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4A75C69-6413-4B0C-A368-5FD51F514FE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74C8395A-6BA5-4336-95D8-642E246F727A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7041E65B-C342-491F-906C-460CE03C6D62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1E28110-58EC-4524-B8BD-2467FFD8CB17}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95DA285F-1295-48D3-A021-21C8896A24DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AE9F339-CAE9-4E7F-B343-1367D7E76D69}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4178EC95-16B2-484F-92D3-3EAD71E2537A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65A620BE-891A-4D09-BD25-CFA2DD5C9EA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB9CCFB7-ED66-45E6-85DD-74297E2D44C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AFC0663-6302-4D27-B868-9548FCED457D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A8BE363-A8DE-4E7C-B365-B03E76D1EBCC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{916487FA-AE07-4F40-A174-BBF87AB6F00D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD8AABE1-1C32-49F7-BEF8-81E01733E09A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11728,7 +11728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C3F6ED-60B9-43BF-AB34-778EA814BBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9573487-96B3-4C38-B5B8-75FC15480A2A}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13008,18 +13008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4CBE05C-EF21-4D4C-B6E7-35A95F0E269B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A451025-CB4E-42B0-84F0-175FE4EA6E86}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EE7EC20-5C2F-4939-BA7D-DB903B52FA82}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DB56937-4A27-407C-9E67-482B38D72CDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED02766F-F9F6-48B6-8E6D-90948D35A372}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC97C48A-7235-4767-9485-E2CB710A2B19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B076F9A7-F7B1-4363-97C1-3184CA7E2136}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD3D2B5D-39C6-4A44-A5FF-5A1BCCAB345B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D572ECAF-0424-434E-9B8C-6F23F3E1DD38}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5D40E45B-4A95-4887-ABA7-8B1899BA9BE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B95FCB00-834D-414C-A133-5A5F47E6BB5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DC3060F-B9A9-47A6-89E1-79FAEFE6B4F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDEAEDB8-A9BD-48FF-99D8-7A8ACAB4B1E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A18CEE3-3104-4F1F-8D01-F2DDC23BF942}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21197C46-910A-45F9-B887-BD18263B8A40}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{097EC7FB-854B-47CC-B992-2E48CA6DE786}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C43C5173-EE4C-49F3-A326-CEC59DA363E9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{506A399E-67FB-446F-AF78-9B6CCB00023D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34CABBD9-C211-47D3-900F-A1FC33B53A26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{957A289C-11F8-4759-A252-644A9F6F6FEE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{674A52E2-76DF-4B5E-A0BF-FED408A25E55}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0C80FA68-DFBF-4ABD-B1B8-F9E844329139}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDF89795-4627-430C-8E92-A49E042487CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAC0BED9-1D68-4D2C-8C96-A65313F87C78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13032,7 +13032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993C674A-AB5B-4157-BE23-45E93523CDA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33369491-DDBB-4145-BB25-BE2B0ACB8525}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14302,18 +14302,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F94E74D7-579B-4D9D-9E71-06D3F4119BD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A30DA890-9A8E-4B7D-BD51-B1E97E148BA1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18306F12-DD7C-4AC3-9978-28FFAAC71D87}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CFCC411-FDA9-4D81-91AE-648373B1CDF3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5975BB11-A05B-40E8-85D9-0007AE018855}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1289FE1F-D7B7-4D8B-9700-6A8C5AD9C56C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C217A9B0-0F2B-49E4-ACFA-4971212804A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC6CB7E5-CBB1-4372-B9CA-603A2BA17AF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAC242C4-EADC-48A3-8874-6F41DA226AF2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{315916AD-0CC7-434D-99FE-FEB61982410E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A27B34A2-E6DE-4DE2-A061-3D5A9099F392}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CD5AD68-F234-49AE-AFB4-3431E21BC1A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37B3517A-1EE4-44C2-AA41-D216A3590771}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2681E58C-0009-4ECC-9935-90A767BBCF13}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11193D97-7080-4CD0-9D8D-47A9CFA86832}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1876E38E-973D-40E5-88FD-FC2017BF65D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12129B76-E473-4057-9036-B52C0C725029}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E26675F-3EAB-4BCB-9B36-AB9C0FE52069}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14329D82-94AE-426F-9054-6F70CA9447EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17E8373F-5736-4D89-9D2C-F2F92C03D619}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13EEDB3B-4313-4029-BFFA-04F19BA291B4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F662E984-7A1C-4CD9-AF63-BB250DD74740}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4CAE409-A7E0-4067-AF06-9E6A9D37D729}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F7F6D83-0975-47A9-A175-85820A5CB716}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14326,7 +14326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E27AD8-5A0B-41A6-A00B-35583C10E7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FADBF50-C5F9-4FB0-9A45-06B658348852}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15588,18 +15588,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{705744B6-D27F-4C6E-B2CB-046A6D131F09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28C4E442-FAE2-44DD-AEB3-A33348E84769}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C5FC41C-4299-4E3A-8D84-7D25BF1C476F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62419519-1BDF-4FF0-A559-E28992941396}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7F84CE3-9C3A-49FD-9DDD-3EB2CC7BCEE6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05543631-746C-414D-9BF4-18AD6533E02E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0989C47-0B9A-4419-9DF8-E25C3F612F9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C748AF7-4486-43C6-91D3-0B12FDDACD93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E7217DA-67C1-4FB2-BB78-2DE500BF08B0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E594E306-74B6-42E9-B7D9-2AF3D0FC06AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FFA21DC-F66A-41C3-8DBE-334F30DC6D16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7F6447B-A5B3-4CF0-BB28-005FF24D5E7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{502E5C9E-C424-4C3C-B469-1C02F48EBD31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71DCEE0C-357E-4833-A197-22002E920DEF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B84F7214-4D2E-4FC6-919A-061955E80BC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C40C1B20-6464-402E-BDF5-49D6F6D58BA5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B89B692E-F68C-4BBA-9DF7-82602314A6A1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C6E9480D-FA36-4610-95CB-29EBFD77EB23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{516D244B-58A4-4A58-B81D-660483E85B9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{228157CA-AC5A-41D1-811D-7D0310475A3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F07F76EE-898B-4519-9395-BC6096910443}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9721A1D4-0DC0-42EA-AAE8-4D8E82E5B319}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A380E72-4FCF-4313-B040-6FD22D83155B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5164B6F5-280D-43F4-9F41-ADD59EDE4D44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15612,7 +15612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED161DB-6AA3-4528-B98F-5A110AF2A3E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13167513-D123-4EC2-8DD2-69033CD1C8A2}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16870,18 +16870,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FC21988-CDEE-42BE-9DDF-CF35CFCEC105}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1D8C1A8-3FE2-4A1D-A308-5F7022B26220}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97321DBB-889A-41BB-BE6B-4A531AFE7734}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E179257-BA9F-482A-9FD0-9AF8BF4E2ADF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8B0743E-1E9D-474F-A9D2-A0C6DC761D81}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{930C108C-9137-4981-8FE6-A9923F9A4730}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FBB5509-6722-46BB-819C-323CE5B82A04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD482A8D-9888-4A2A-BADD-DD63933ACCEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1EFE417-B4B1-445E-B3A0-35B4891D50C8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{235D881F-6484-4567-971B-5D8D221AF118}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B77680D4-07CC-4291-9214-02B48C6040D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C8D11AA-1BA7-4899-A6E7-2B7CE0B2E241}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E353073-9827-48D5-B504-1E7EE641B7E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{237F2E54-DAAE-4AA1-917A-D7F089E922A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA6D584D-DEB8-4F3C-A5BA-A52882C43814}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C274C850-9553-4AD9-B0C0-FCA09E7E1E31}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7B4F31F-9F8E-47BB-870D-0889ACBF97F5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{384E14FF-8821-491B-BC21-0789B386504F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A91C102-EA72-4B54-A7C6-223258162C8D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8922A776-85AB-4933-B84D-6641D1DEC1E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE782AC6-C7D2-47BA-8579-8189BAFD97CE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8943AFE1-6488-447D-82DB-B980D88D5D72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E86DDE3A-D8F7-4F85-A7FD-413B00D59D33}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8B55059-04D4-4E0A-974A-C4CFCD13A28F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
